--- a/biology/Botanique/Bois_Bizin/Bois_Bizin.xlsx
+++ b/biology/Botanique/Bois_Bizin/Bois_Bizin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Bois Bizin sont une zone forestière d'altitude de la Montagne bourbonnaise, dans le département de l'Allier et à la limite du département de la Loire. 
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette zone est située entre Le Mayet-de-Montagne, Ferrières-sur-Sichon, Lavoine, Saint-Priest-la-Prugne, Laprugne, La Chabanne et Saint-Clément. Elle domine la rive droite du Sichon, à l'ouest, et la rive gauche de la haute vallée de la Besbre, à l'est. Il s'agit d'un chaînon orienté du nord-ouest au sud-est, à une altitude variant d'environ 750 m à presque 1000 m. Le point culminant de ce paysage granitique se trouve au roc des Gabelous[1] à 980 m et d'autres sommets notables sont le rocher Saint-Vincent (925 m) et le Grand Roc (872 m). Le col du Beaulouis (823 m) permet la traversée de ce chaînon au sud : il sépare les Bois Bizin des Bois Noirs et du puy de Montoncel ; il était emprunté par le tacot de la Montagne bourbonnaise et l'est encore par l'ancienne RN 495, déclassée, qui relie Cusset à Saint-Just-en-Chevalet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette zone est située entre Le Mayet-de-Montagne, Ferrières-sur-Sichon, Lavoine, Saint-Priest-la-Prugne, Laprugne, La Chabanne et Saint-Clément. Elle domine la rive droite du Sichon, à l'ouest, et la rive gauche de la haute vallée de la Besbre, à l'est. Il s'agit d'un chaînon orienté du nord-ouest au sud-est, à une altitude variant d'environ 750 m à presque 1000 m. Le point culminant de ce paysage granitique se trouve au roc des Gabelous à 980 m et d'autres sommets notables sont le rocher Saint-Vincent (925 m) et le Grand Roc (872 m). Le col du Beaulouis (823 m) permet la traversée de ce chaînon au sud : il sépare les Bois Bizin des Bois Noirs et du puy de Montoncel ; il était emprunté par le tacot de la Montagne bourbonnaise et l'est encore par l'ancienne RN 495, déclassée, qui relie Cusset à Saint-Just-en-Chevalet.
 Aucune route ne traverse la forêt de part en part, sauf à l'extrême sud une route qui relie Lavoine à Laprugne par le village et le col du Point du Jour et une autre route qui relie le col du Beau Louis à Laprugne par le village du Vernois. Des chemins vicinaux et des chemins forestiers desservent des écarts et permettent l'exploitation forestière. La zone est encadrée par la D 995 (ou D 495 sur la commune de Saint-Priest-la-Prugne, dans la Loire), ancienne RN 495, qui suit la vallée du Sichon à l'ouest, et par la D 7 qui permet d'aller de Saint-Priest-la-Prugne au Mayet-de-Montagne par Laprugne, en suivant le flanc est de la forêt.
 Des Bois Bizin et de leurs contreforts descendent plusieurs ruisseaux :
 à l'est, affluents de rive gauche de la Besbre : du sud au nord, la Goutte Routard, la Goutte Georges, la Goutte Fayet, la Goutte Ribon, le Sulore, le Ruisseau des Arbres, la Goutte Breda.
@@ -548,7 +562,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation spécifique Bois du Bizin désigne la partie nord de cette zone forestière, sur la commune du Mayet-de-Montagne, et tire son nom du hameau du Bizin à la limite nord de la forêt. De là, l'appellation s'est étendue à l'ensemble de ce massif forestier entre Sichon et Besbre.
 </t>
@@ -579,9 +595,11 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone des Bois Bizin est propice aux randonnées pédestre, équestre et cycliste. Le GR 3 (qui suit la Loire de sa source, au mont Gerbier de Jonc, jusqu'à l'Atlantique) la traverse dans presque toute sa longueur du sud au nord ; il entre dans la zone à proximité du rocher Saint-Vincent, passe au roc des Gabelous puis suit le chemin de crête, dit chemin de la Ligue[2], en direction du nord, avant de descendre vers Saint-Clément. Avant d'entrer dans le bois du Bizin, il croise le GRP Montagne bourbonnaise qui traverse la forêt d'est en ouest au niveau du Grand Roc.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone des Bois Bizin est propice aux randonnées pédestre, équestre et cycliste. Le GR 3 (qui suit la Loire de sa source, au mont Gerbier de Jonc, jusqu'à l'Atlantique) la traverse dans presque toute sa longueur du sud au nord ; il entre dans la zone à proximité du rocher Saint-Vincent, passe au roc des Gabelous puis suit le chemin de crête, dit chemin de la Ligue, en direction du nord, avant de descendre vers Saint-Clément. Avant d'entrer dans le bois du Bizin, il croise le GRP Montagne bourbonnaise qui traverse la forêt d'est en ouest au niveau du Grand Roc.
 </t>
         </is>
       </c>
